--- a/pH calibration curve.xlsx
+++ b/pH calibration curve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,21 @@
           <t>B</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SD R</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SD G</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SD B</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -468,6 +483,15 @@
       <c r="D2" t="n">
         <v>19.25278469497321</v>
       </c>
+      <c r="E2" t="n">
+        <v>2.002821803740355</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.579263923852113</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.576560400388404</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -482,6 +506,15 @@
       <c r="D3" t="n">
         <v>21.44403551284583</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.2491280969463175</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5490305741584532</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.926268622013179</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -496,6 +529,15 @@
       <c r="D4" t="n">
         <v>16.81000054793973</v>
       </c>
+      <c r="E4" t="n">
+        <v>2.727968293397559</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.032375442472369</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.859015480123813</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -510,6 +552,15 @@
       <c r="D5" t="n">
         <v>23.01985866192068</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.5327091129201248</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8893730727730547</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.200918859766186</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -524,6 +575,15 @@
       <c r="D6" t="n">
         <v>32.97452484901749</v>
       </c>
+      <c r="E6" t="n">
+        <v>1.728695424415246</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.196262662486254</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6701819528371445</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -538,6 +598,15 @@
       <c r="D7" t="n">
         <v>28.42151080900568</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.6615153575954913</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1810631052722899</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5077777271199247</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -551,6 +620,15 @@
       </c>
       <c r="D8" t="n">
         <v>28.62578452000746</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.207296180633201</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.489404895400783</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.572363182025411</v>
       </c>
     </row>
   </sheetData>

--- a/pH calibration curve.xlsx
+++ b/pH calibration curve.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SD R</t>
+          <t>SD of R</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SD G</t>
+          <t>SD of G</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SD B</t>
+          <t>SD of B</t>
         </is>
       </c>
     </row>

--- a/pH calibration curve.xlsx
+++ b/pH calibration curve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>SD of B</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Average SD</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -492,6 +497,9 @@
       <c r="G2" t="n">
         <v>1.576560400388404</v>
       </c>
+      <c r="H2" t="n">
+        <v>1.719548709326957</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -515,6 +523,9 @@
       <c r="G3" t="n">
         <v>1.926268622013179</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.9081424310393165</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -538,6 +549,9 @@
       <c r="G4" t="n">
         <v>3.859015480123813</v>
       </c>
+      <c r="H4" t="n">
+        <v>2.873119738664581</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -561,6 +575,9 @@
       <c r="G5" t="n">
         <v>3.200918859766186</v>
       </c>
+      <c r="H5" t="n">
+        <v>1.541000348486455</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +601,9 @@
       <c r="G6" t="n">
         <v>0.6701819528371445</v>
       </c>
+      <c r="H6" t="n">
+        <v>1.198380013246215</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -607,6 +627,9 @@
       <c r="G7" t="n">
         <v>0.5077777271199247</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.450118729995902</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -629,6 +652,9 @@
       </c>
       <c r="G8" t="n">
         <v>1.572363182025411</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.423021419353131</v>
       </c>
     </row>
   </sheetData>
